--- a/план реализации задач.xlsx
+++ b/план реализации задач.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\java\HotelApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9188BFB-CE5A-47CE-BF2A-7CDA25CF67B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EB2D55-D09B-4D9F-ACD6-79F333DBC1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>номер</t>
   </si>
@@ -100,6 +100,13 @@
   </si>
   <si>
     <t>Реализовать форму о программе</t>
+  </si>
+  <si>
+    <t>HA-9</t>
+  </si>
+  <si>
+    <t>Реализовать форму со справочником клиенты(client).
+Должен быть виден список, вохможность добавлять, изменять и удалять</t>
   </si>
 </sst>
 </file>
@@ -473,9 +480,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -581,19 +588,23 @@
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
     </row>
@@ -686,6 +697,12 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/план реализации задач.xlsx
+++ b/план реализации задач.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\java\HotelApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EB2D55-D09B-4D9F-ACD6-79F333DBC1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BB1CE4-100D-4D13-BE8B-FD46873E6812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="3090" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +200,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,7 +484,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +566,9 @@
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="8">
+        <v>43961</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -575,7 +578,9 @@
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11">
+        <v>43962</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">

--- a/план реализации задач.xlsx
+++ b/план реализации задач.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\java\HotelApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BB1CE4-100D-4D13-BE8B-FD46873E6812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA76676-717B-4F8E-AA71-4CDAE60C8C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2475" yWindow="3090" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,7 +200,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,7 +483,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +577,7 @@
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>43962</v>
       </c>
       <c r="D7" s="9"/>
@@ -590,7 +589,9 @@
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="8">
+        <v>43962</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -600,7 +601,7 @@
       <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,7 +611,7 @@
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/план реализации задач.xlsx
+++ b/план реализации задач.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\java\HotelApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA76676-717B-4F8E-AA71-4CDAE60C8C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF7651-8D19-48E7-9B87-E15DE32E8FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="3090" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -84,29 +84,29 @@
     <t>HA-7</t>
   </si>
   <si>
+    <t>HA-8</t>
+  </si>
+  <si>
+    <t>Реализовать форму о программе</t>
+  </si>
+  <si>
+    <t>HA-9</t>
+  </si>
+  <si>
+    <t>Реализовать форму со справочником Тип кнонаты(roomtypes).
+Должен быть виден список, возможность добавлять, изменять и удалять</t>
+  </si>
+  <si>
     <t>Реализовать форму со справочником Список комнат(rooms).
-Должен быть виден список, вохможность добавлять, изменять и удалять</t>
-  </si>
-  <si>
-    <t>Реализовать форму со справочником Тип кнонаты(roomtypes).
-Должен быть виден список, вохможность добавлять, изменять и удалять</t>
+Должен быть виден список, возможность добавлять, изменять и удалять</t>
   </si>
   <si>
     <t>Реализовать форму со справочником должности(positions).
-Должен быть виден список, вохможность добавлять, изменять и удалять</t>
-  </si>
-  <si>
-    <t>HA-8</t>
-  </si>
-  <si>
-    <t>Реализовать форму о программе</t>
-  </si>
-  <si>
-    <t>HA-9</t>
+Должен быть виден список, возможность добавлять, изменять и удалять</t>
   </si>
   <si>
     <t>Реализовать форму со справочником клиенты(client).
-Должен быть виден список, вохможность добавлять, изменять и удалять</t>
+Должен быть виден список, возможность добавлять, изменять и удалять</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="8">
         <v>43961</v>
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8">
         <v>43962</v>
@@ -587,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8">
         <v>43962</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>22</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
